--- a/data/metadata/Informe-03-030007-A-TC-TP.xlsx
+++ b/data/metadata/Informe-03-030007-A-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>residencia-comarca-codigo</t>
   </si>
@@ -49,22 +49,25 @@
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-dimension:sexo</t>
+    <t>iaest-measure:residencia-comarca-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
     <t>iaest-measure:personas</t>
   </si>
   <si>
-    <t>iaest-dimension:residencia-ccaa-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:edad-grandes-grupos</t>
-  </si>
-  <si>
-    <t>iaest-dimension:relacion-lugar-de-residencia-y-nacimiento</t>
+    <t>iaest-measure:residencia-provincia-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-ccaa-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:edad-grandes-grupos</t>
+  </si>
+  <si>
+    <t>iaest-measure:relacion-lugar-de-residencia-y-nacimiento</t>
   </si>
   <si>
     <t>dim</t>
@@ -76,28 +79,10 @@
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-residencia-ccaa-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-edad-grandes-grupos.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-relacion-lugar-de-residencia-y-nacimiento.xlsx</t>
   </si>
 </sst>
 </file>
@@ -209,16 +194,16 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -226,31 +211,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -258,48 +243,36 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030007-A-TC-TP.xlsx
+++ b/data/metadata/Informe-03-030007-A-TC-TP.xlsx
@@ -11,75 +11,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
-  <si>
-    <t>residencia-comarca-codigo</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>residencia-provincia-codigo</t>
-  </si>
-  <si>
-    <t>residencia-comarca-nombre</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>personas</t>
-  </si>
-  <si>
-    <t>residencia-provincia-nombre</t>
-  </si>
-  <si>
-    <t>residencia-ccaa-nombre</t>
-  </si>
-  <si>
-    <t>edad-grandes-grupos</t>
-  </si>
-  <si>
-    <t>relacion-lugar-de-residencia-y-nacimiento</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+  <si>
+    <t>Edad (grandes grupos)</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Residencia provincia código</t>
+  </si>
+  <si>
+    <t>Residencia comarca código</t>
+  </si>
+  <si>
+    <t>Residencia CCAA nombre</t>
+  </si>
+  <si>
+    <t>Residencia comarca nombre</t>
+  </si>
+  <si>
+    <t>Residencia provincia nombre</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Relación lugar de residencia y nacimiento</t>
+  </si>
+  <si>
+    <t>iaest-measure:edad-grandes-grupos</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>iaest-measure:residencia-ccaa-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-comarca-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-provincia-nombre</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:residencia-comarca-nombre</t>
-  </si>
-  <si>
     <t>iaest-measure:sexo</t>
   </si>
   <si>
-    <t>iaest-measure:personas</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-provincia-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-ccaa-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:edad-grandes-grupos</t>
-  </si>
-  <si>
     <t>iaest-measure:relacion-lugar-de-residencia-y-nacimiento</t>
   </si>
   <si>
+    <t>medida</t>
+  </si>
+  <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>xsd:int</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -182,7 +185,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -208,71 +211,71 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>23</v>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030007-A-TC-TP.xlsx
+++ b/data/metadata/Informe-03-030007-A-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Edad (grandes grupos)</t>
   </si>
@@ -43,6 +43,36 @@
     <t>Relación lugar de residencia y nacimiento</t>
   </si>
   <si>
+    <t>edad-grandes-grupos</t>
+  </si>
+  <si>
+    <t>personas</t>
+  </si>
+  <si>
+    <t>residencia-provincia-codigo</t>
+  </si>
+  <si>
+    <t>residencia-comarca-codigo</t>
+  </si>
+  <si>
+    <t>residencia-ccaa-nombre</t>
+  </si>
+  <si>
+    <t>residencia-comarca-nombre</t>
+  </si>
+  <si>
+    <t>residencia-provincia-nombre</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>relacion-lugar-de-residencia-y-nacimiento</t>
+  </si>
+  <si>
     <t>iaest-measure:edad-grandes-grupos</t>
   </si>
   <si>
@@ -83,9 +113,6 @@
   </si>
   <si>
     <t>xsd:date</t>
-  </si>
-  <si>
-    <t>mapping-ano.xlsx</t>
   </si>
 </sst>
 </file>
@@ -188,94 +215,121 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030007-A-TC-TP.xlsx
+++ b/data/metadata/Informe-03-030007-A-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Edad (grandes grupos)</t>
   </si>
@@ -73,7 +73,7 @@
     <t>relacion-lugar-de-residencia-y-nacimiento</t>
   </si>
   <si>
-    <t>iaest-measure:edad-grandes-grupos</t>
+    <t>iaest-dimension:edad-grandes-grupos</t>
   </si>
   <si>
     <t>iaest-measure:personas</t>
@@ -82,37 +82,49 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:residencia-ccaa-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-comarca-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-provincia-nombre</t>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
-    <t>iaest-measure:relacion-lugar-de-residencia-y-nacimiento</t>
+    <t>iaest-dimension:sexo</t>
+  </si>
+  <si>
+    <t>iaest-dimension:relacion-lugar-de-residencia-y-nacimiento</t>
+  </si>
+  <si>
+    <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
+    <t>skos:Concept</t>
   </si>
   <si>
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
     <t>xsd:date</t>
+  </si>
+  <si>
+    <t>mapping-edad-grandes-grupos.xlsx</t>
+  </si>
+  <si>
+    <t>mapping-sexo.xlsx</t>
+  </si>
+  <si>
+    <t>mapping-relacion-lugar-de-residencia-y-nacimiento.xlsx</t>
   </si>
 </sst>
 </file>
@@ -253,27 +265,27 @@
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
@@ -282,30 +294,30 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -317,19 +329,30 @@
         <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030007-A-TC-TP.xlsx
+++ b/data/metadata/Informe-03-030007-A-TC-TP.xlsx
@@ -148,17 +148,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -168,15 +173,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
